--- a/src/main/resources/examples/装载过程排放.xlsx
+++ b/src/main/resources/examples/装载过程排放.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\SccDM_Admin\src\main\resources\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29d1961e783089/修改后模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8EC161-DD73-49E6-B622-B96F805AA32A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{4D8EC161-DD73-49E6-B622-B96F805AA32A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AAA4C76C-7BF8-41CF-AE60-F035D9DB9865}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>组织机构代码</t>
   </si>
@@ -38,12 +38,6 @@
     <t>区县编码</t>
   </si>
   <si>
-    <t>行业分类</t>
-  </si>
-  <si>
-    <t>物料类型</t>
-  </si>
-  <si>
     <t>存储物料具体类型</t>
   </si>
   <si>
@@ -54,10 +48,6 @@
   </si>
   <si>
     <t>VOCs排放量(吨)</t>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,23 +71,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>石化行业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>石油产品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>原油</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>年装卸油量Q(m3)</t>
+  </si>
+  <si>
+    <t>所在功能区</t>
+  </si>
+  <si>
+    <t>商业区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防控效率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -150,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +152,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -438,35 +434,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.89453125" customWidth="1"/>
-    <col min="3" max="3" width="13.62890625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.62890625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.89453125" customWidth="1"/>
     <col min="4" max="4" width="17.26171875" customWidth="1"/>
     <col min="5" max="5" width="12.26171875" customWidth="1"/>
-    <col min="6" max="7" width="9.734375" customWidth="1"/>
-    <col min="8" max="9" width="7.62890625" customWidth="1"/>
-    <col min="10" max="10" width="13.734375" customWidth="1"/>
-    <col min="11" max="11" width="9.47265625" customWidth="1"/>
-    <col min="12" max="12" width="18.3671875" customWidth="1"/>
-    <col min="13" max="13" width="22.3671875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="7.62890625" customWidth="1"/>
+    <col min="8" max="8" width="11.5234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.734375" customWidth="1"/>
+    <col min="10" max="10" width="18.3671875" customWidth="1"/>
+    <col min="11" max="12" width="22.3671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -475,144 +470,138 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1201111401</v>
+      </c>
+      <c r="B2">
+        <v>2015</v>
+      </c>
+      <c r="C2">
+        <v>650102</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>96.235600000000005</v>
+      </c>
+      <c r="G2">
+        <v>68.235600000000005</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>23134</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K2" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>1201111401</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3">
+        <v>650102</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F3">
+        <v>96.235600000000005</v>
+      </c>
+      <c r="G3">
+        <v>68.235600000000005</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>23134</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.96</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>2015</v>
-      </c>
-      <c r="B2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>1201111401</v>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4">
         <v>650102</v>
       </c>
-      <c r="C2" s="3">
-        <v>1201111401</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>96.235600000000005</v>
+      </c>
+      <c r="G4">
+        <v>68.235600000000005</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>96.235600000000005</v>
-      </c>
-      <c r="I2">
-        <v>68.235600000000005</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="I4" s="1">
+        <v>23134</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2016</v>
-      </c>
-      <c r="B3">
-        <v>650102</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1201111401</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>96.235600000000005</v>
-      </c>
-      <c r="I3">
-        <v>68.235600000000005</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4">
-        <v>650102</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1201111401</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>96.235600000000005</v>
-      </c>
-      <c r="I4">
-        <v>68.235600000000005</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="L4" s="2">
         <v>0.96</v>
       </c>
     </row>

--- a/src/main/resources/examples/装载过程排放.xlsx
+++ b/src/main/resources/examples/装载过程排放.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29d1961e783089/修改后模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{4D8EC161-DD73-49E6-B622-B96F805AA32A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AAA4C76C-7BF8-41CF-AE60-F035D9DB9865}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{4D8EC161-DD73-49E6-B622-B96F805AA32A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D151E36-79D5-40C2-A660-656FBBA25C1D}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>组织机构代码</t>
   </si>
@@ -85,8 +85,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>防控效率</t>
+    <t>防控效率（%）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站地址</t>
+  </si>
+  <si>
+    <t>山东路5号(近八一礼堂)</t>
+  </si>
+  <si>
+    <t>靖江路18号(近卫国道)</t>
+  </si>
+  <si>
+    <t>津塘路38号增1号十五经路与津塘路交口,铁道旁</t>
   </si>
 </sst>
 </file>
@@ -434,26 +446,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.62890625" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.89453125" customWidth="1"/>
-    <col min="4" max="4" width="17.26171875" customWidth="1"/>
-    <col min="5" max="5" width="12.26171875" customWidth="1"/>
-    <col min="6" max="7" width="7.62890625" customWidth="1"/>
-    <col min="8" max="8" width="11.5234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.734375" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="17.26171875" customWidth="1"/>
+    <col min="6" max="6" width="32.734375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="7.62890625" customWidth="1"/>
+    <col min="9" max="9" width="11.5234375" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.3671875" customWidth="1"/>
-    <col min="11" max="12" width="22.3671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.3671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.734375" customWidth="1"/>
+    <col min="13" max="13" width="22.3671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -464,22 +478,22 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -487,11 +501,14 @@
       <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1201111401</v>
       </c>
@@ -502,22 +519,22 @@
         <v>650102</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
         <v>96.235600000000005</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>68.235600000000005</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="1">
-        <v>23134</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -525,11 +542,14 @@
       <c r="K2" s="2">
         <v>0.96</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
+        <v>23134</v>
+      </c>
+      <c r="M2" s="2">
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1201111401</v>
       </c>
@@ -540,22 +560,22 @@
         <v>650102</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
         <v>96.235600000000005</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>68.235600000000005</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" s="1">
-        <v>23134</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -563,11 +583,14 @@
       <c r="K3" s="2">
         <v>0.96</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
+        <v>23134</v>
+      </c>
+      <c r="M3" s="2">
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1201111401</v>
       </c>
@@ -578,22 +601,22 @@
         <v>650102</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
         <v>96.235600000000005</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>68.235600000000005</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="I4" s="1">
-        <v>23134</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -601,9 +624,24 @@
       <c r="K4" s="2">
         <v>0.96</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
+        <v>23134</v>
+      </c>
+      <c r="M4" s="2">
         <v>0.96</v>
       </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5"/>
+      <c r="F5"/>
+      <c r="I5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6"/>
+      <c r="F6"/>
+      <c r="I6"/>
+      <c r="K6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/examples/装载过程排放.xlsx
+++ b/src/main/resources/examples/装载过程排放.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29d1961e783089/修改后模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang-\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{4D8EC161-DD73-49E6-B622-B96F805AA32A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D151E36-79D5-40C2-A660-656FBBA25C1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BC3528-B0BD-4E4A-8D47-0247F3780452}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="1140" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="装载过程排放" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>组织机构代码</t>
   </si>
@@ -85,20 +84,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>防控效率（%）</t>
+    <t>加油站地址</t>
+  </si>
+  <si>
+    <t>山东路5号(近八一礼堂)</t>
+  </si>
+  <si>
+    <t>靖江路18号(近卫国道)</t>
+  </si>
+  <si>
+    <t>津塘路38号增1号十五经路与津塘路交口,铁道旁</t>
+  </si>
+  <si>
+    <t>1511010010</t>
+  </si>
+  <si>
+    <t>防控效率0-100</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油站地址</t>
-  </si>
-  <si>
-    <t>山东路5号(近八一礼堂)</t>
-  </si>
-  <si>
-    <t>靖江路18号(近卫国道)</t>
-  </si>
-  <si>
-    <t>津塘路38号增1号十五经路与津塘路交口,铁道旁</t>
   </si>
 </sst>
 </file>
@@ -446,28 +448,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.62890625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="17.26171875" customWidth="1"/>
-    <col min="6" max="6" width="32.734375" style="6" customWidth="1"/>
-    <col min="7" max="8" width="7.62890625" customWidth="1"/>
-    <col min="9" max="9" width="11.5234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3671875" customWidth="1"/>
-    <col min="11" max="11" width="22.3671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.734375" customWidth="1"/>
-    <col min="13" max="13" width="22.3671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="6" customWidth="1"/>
+    <col min="7" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -484,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -499,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
@@ -508,15 +510,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>1201111401</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
       <c r="C2">
-        <v>650102</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -525,13 +527,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>96.235600000000005</v>
+        <v>117.20027399999999</v>
       </c>
       <c r="H2">
-        <v>68.235600000000005</v>
+        <v>39.133594000000002</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>14</v>
@@ -540,7 +542,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="2">
-        <v>0.96</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1">
         <v>23134</v>
@@ -549,15 +551,15 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>1201111401</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B3">
         <v>2016</v>
       </c>
       <c r="C3">
-        <v>650102</v>
+        <v>210102</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -566,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>96.235600000000005</v>
+        <v>117.20027399999999</v>
       </c>
       <c r="H3">
-        <v>68.235600000000005</v>
+        <v>39.133594000000002</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>14</v>
@@ -581,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="K3" s="2">
-        <v>0.96</v>
+        <v>50</v>
       </c>
       <c r="L3" s="1">
         <v>23134</v>
@@ -590,15 +592,15 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
-        <v>1201111401</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B4">
         <v>2017</v>
       </c>
       <c r="C4">
-        <v>650102</v>
+        <v>210103</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -607,13 +609,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>96.235600000000005</v>
+        <v>117.20027399999999</v>
       </c>
       <c r="H4">
-        <v>68.235600000000005</v>
+        <v>39.133594000000002</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
@@ -622,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="2">
-        <v>0.96</v>
+        <v>50</v>
       </c>
       <c r="L4" s="1">
         <v>23134</v>
@@ -630,35 +632,10 @@
       <c r="M4" s="2">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5"/>
-      <c r="F5"/>
-      <c r="I5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6"/>
-      <c r="F6"/>
-      <c r="I6"/>
-      <c r="K6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
 </file>